--- a/Cronograma_R&D_Monitoreo de condición transformadores.xlsx
+++ b/Cronograma_R&D_Monitoreo de condición transformadores.xlsx
@@ -1572,7 +1572,7 @@
   <dimension ref="A1:EE136"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="F136" sqref="F136"/>
@@ -64850,7 +64850,7 @@
       </c>
       <c r="D134" s="22">
         <f ca="1">+TODAY()</f>
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="E134" s="10">
         <f>+SUM(E3:E132)</f>
@@ -64913,15 +64913,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100973BFEFB9E8EED45AA48D1DFC8B704A3" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="48fa98e84d6ca432d9ec38d9b25c34f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a1cc19d0-e28e-4f1b-b120-4e42c2fee203" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8208d0d75ea2fc72020bc14120e8df3f" ns3:_="">
     <xsd:import namespace="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
@@ -65103,31 +65094,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC8133D1-8DEA-45BD-AFB3-3189128084E2}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{670489EE-8744-4FC4-88EB-F249B04AD46B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57688D17-29EA-40D1-B5B2-FE8FA3D4685A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -65143,4 +65135,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{670489EE-8744-4FC4-88EB-F249B04AD46B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Cronograma_R&D_Monitoreo de condición transformadores.xlsx
+++ b/Cronograma_R&D_Monitoreo de condición transformadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roquispec\OneDrive - LUZ DEL SUR S.A.A\Documentos\Estudios de Ingreso\ProyectoRyD_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{75931635-CDDC-4490-8481-FA3AEE7C15DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{081F1D35-515B-43BA-AF78-EE75FA2974BF}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{75931635-CDDC-4490-8481-FA3AEE7C15DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{893D8E38-06CE-47B4-BB9A-2C1F89C02625}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{7710FAF1-5072-4D5C-A8B4-F16733474301}"/>
   </bookViews>
@@ -735,8 +735,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8393206" y="1085290"/>
-          <a:ext cx="0" cy="627529"/>
+          <a:off x="8406848" y="1086264"/>
+          <a:ext cx="0" cy="662609"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1572,10 +1572,10 @@
   <dimension ref="A1:EE136"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F136" sqref="F136"/>
+      <selection pane="bottomRight" activeCell="BA57" sqref="A1:BA57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -55742,7 +55742,7 @@
         <v>0.125</v>
       </c>
       <c r="F114" s="10">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G114" s="4" t="str">
         <f t="shared" si="47"/>
@@ -60057,7 +60057,9 @@
         <f>+B123*0.5%</f>
         <v>0.05</v>
       </c>
-      <c r="F123" s="10"/>
+      <c r="F123" s="10">
+        <v>0.05</v>
+      </c>
       <c r="G123" s="4" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -63413,7 +63415,9 @@
         <f>+B130*0.5%</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F130" s="10"/>
+      <c r="F130" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="G130" s="4" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -63893,7 +63897,9 @@
         <f>+B131*0.5%</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F131" s="10"/>
+      <c r="F131" s="10">
+        <v>0.01</v>
+      </c>
       <c r="G131" s="4" t="str">
         <f t="shared" ref="G131:BR132" si="95">+IF(AND(G$2&gt;=$C131,$C131+G$2-$C131&lt;=$D131),1,"")</f>
         <v/>
@@ -64850,7 +64856,7 @@
       </c>
       <c r="D134" s="22">
         <f ca="1">+TODAY()</f>
-        <v>45954</v>
+        <v>45961</v>
       </c>
       <c r="E134" s="10">
         <f>+SUM(E3:E132)</f>
@@ -64858,7 +64864,7 @@
       </c>
       <c r="F134" s="20">
         <f>+SUM(F3:F132)</f>
-        <v>0.68000000000000027</v>
+        <v>0.76500000000000035</v>
       </c>
     </row>
     <row r="136" spans="1:135" x14ac:dyDescent="0.25">
@@ -64905,14 +64911,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a1cc19d0-e28e-4f1b-b120-4e42c2fee203" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100973BFEFB9E8EED45AA48D1DFC8B704A3" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="48fa98e84d6ca432d9ec38d9b25c34f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a1cc19d0-e28e-4f1b-b120-4e42c2fee203" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8208d0d75ea2fc72020bc14120e8df3f" ns3:_="">
     <xsd:import namespace="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
@@ -65094,6 +65092,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a1cc19d0-e28e-4f1b-b120-4e42c2fee203" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -65104,22 +65110,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC8133D1-8DEA-45BD-AFB3-3189128084E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57688D17-29EA-40D1-B5B2-FE8FA3D4685A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -65137,6 +65127,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC8133D1-8DEA-45BD-AFB3-3189128084E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a1cc19d0-e28e-4f1b-b120-4e42c2fee203"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{670489EE-8744-4FC4-88EB-F249B04AD46B}">
   <ds:schemaRefs>
